--- a/slides/lecture06/01_offset.xlsx
+++ b/slides/lecture06/01_offset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/work/lecture06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/lecture06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5987" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{954BBFE5-4DED-498A-9BDC-3050AAC4C32A}"/>
+  <xr:revisionPtr revIDLastSave="5988" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE279D98-6E9E-4F83-B44D-FFA9830A69B4}"/>
   <bookViews>
-    <workbookView xWindow="-37590" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OFFSET" sheetId="28" r:id="rId1"/>
@@ -825,18 +825,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585E852F-D0B4-4BEA-A43F-C6F32E2255BB}">
   <dimension ref="B2:H87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.3046875" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
@@ -847,12 +847,12 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -869,7 +869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -885,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -893,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -901,7 +901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
@@ -912,13 +912,13 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>44</v>
       </c>
@@ -938,7 +938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>23</v>
       </c>
@@ -958,7 +958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>35</v>
       </c>
@@ -978,7 +978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>30</v>
       </c>
@@ -998,7 +998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>36</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>45</v>
       </c>
@@ -1038,41 +1038,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="str">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" t="e">
         <f ca="1">_xlfn.FORMULATEXT(B25)</f>
-        <v>=OFFSET(B17;4;3;2;3)</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" cm="1">
-        <f t="array" aca="1" ref="B25:D26" ca="1">OFFSET(B17,4,3,2,3)</f>
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <f ca="1"/>
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <f ca="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <f ca="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="9" t="s">
         <v>15</v>
       </c>
@@ -1083,13 +1055,13 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
@@ -1106,73 +1078,73 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B41)</f>
         <v>=OFFSET(Table!A1;1;0;COUNTA(Table!A:A) - 1)</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" t="str" cm="1">
         <f t="array" aca="1" ref="B41:B45" ca="1">OFFSET(Table!A1,1,0,COUNTA(Table!A:A) - 1)</f>
         <v>Bob</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" t="str">
         <f ca="1"/>
         <v>Alice</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B43" t="str">
         <f ca="1"/>
         <v>Kendrick</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" t="str">
         <f ca="1"/>
         <v>Peter</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45" t="str">
         <f ca="1"/>
         <v>Gabby</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="7" t="s">
         <v>36</v>
       </c>
@@ -1183,24 +1155,24 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B57)</f>
         <v>=TRANSPOSE(Table1[Name])</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" t="str" cm="1">
         <f t="array" ref="B57:F57">TRANSPOSE(Table1[Name])</f>
         <v>Bob</v>
@@ -1218,7 +1190,7 @@
         <v>Gabby</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="9" t="s">
         <v>19</v>
       </c>
@@ -1229,13 +1201,13 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="3">
         <v>44</v>
       </c>
@@ -1255,7 +1227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B64">
         <v>23</v>
       </c>
@@ -1275,7 +1247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65">
         <v>35</v>
       </c>
@@ -1295,7 +1267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>30</v>
       </c>
@@ -1315,7 +1287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>36</v>
       </c>
@@ -1335,7 +1307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>45</v>
       </c>
@@ -1355,13 +1327,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B71)</f>
         <v>=INDEX(B63:H68;{5;6};{4\5\6})</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" cm="1">
         <f t="array" ref="B71:D72">INDEX(B63:H68,{5;6},{4,5,6})</f>
         <v>23</v>
@@ -1373,7 +1345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72">
         <v>21</v>
       </c>
@@ -1384,12 +1356,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="3">
         <v>44</v>
       </c>
@@ -1409,7 +1381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77">
         <v>23</v>
       </c>
@@ -1429,7 +1401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78">
         <v>35</v>
       </c>
@@ -1449,7 +1421,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79">
         <v>30</v>
       </c>
@@ -1469,7 +1441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>36</v>
       </c>
@@ -1489,7 +1461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>45</v>
       </c>
@@ -1509,13 +1481,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B84)</f>
         <v>=INDEX(B76:H81;{2;3;5;6};{4\5\6})</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" cm="1">
         <f t="array" ref="B84:D87">INDEX(B76:H81,{2;3;5;6},{4,5,6})</f>
         <v>24</v>
@@ -1527,7 +1499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85">
         <v>21</v>
       </c>
@@ -1538,7 +1510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86">
         <v>23</v>
       </c>
@@ -1549,7 +1521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87">
         <v>21</v>
       </c>
@@ -1586,9 +1558,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1576,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1612,7 +1584,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1620,7 +1592,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1628,7 +1600,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1652,9 +1624,9 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
@@ -1665,7 +1637,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="4" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
@@ -1676,18 +1648,18 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>518</v>
       </c>
@@ -1719,7 +1691,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>156</v>
       </c>
@@ -1751,7 +1723,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>253</v>
       </c>
@@ -1783,7 +1755,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>955</v>
       </c>
@@ -1815,7 +1787,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>723</v>
       </c>
@@ -1847,7 +1819,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>281</v>
       </c>
@@ -1879,7 +1851,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>347</v>
       </c>
@@ -1911,7 +1883,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>661</v>
       </c>
@@ -1943,7 +1915,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>590</v>
       </c>
@@ -1975,7 +1947,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>654</v>
       </c>
@@ -2007,7 +1979,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
@@ -2018,18 +1990,18 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>675</v>
       </c>
@@ -2058,7 +2030,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>718</v>
       </c>
@@ -2087,7 +2059,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>930</v>
       </c>
@@ -2116,7 +2088,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>404</v>
       </c>
@@ -2145,7 +2117,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>967</v>
       </c>
@@ -2174,7 +2146,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>448</v>
       </c>
@@ -2203,7 +2175,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>928</v>
       </c>
@@ -2232,7 +2204,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>169</v>
       </c>
@@ -2261,7 +2233,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>916</v>
       </c>
@@ -2290,7 +2262,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>559</v>
       </c>
@@ -2319,7 +2291,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="6" t="s">
         <v>40</v>
       </c>
@@ -2330,18 +2302,18 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>46</v>
       </c>
@@ -2355,7 +2327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>50</v>
       </c>
@@ -2363,7 +2335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>48</v>
       </c>
@@ -2371,7 +2343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>49</v>
       </c>
@@ -2379,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -2403,9 +2375,9 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
@@ -2416,7 +2388,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="4" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
@@ -2427,18 +2399,18 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>518</v>
       </c>
@@ -2470,7 +2442,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>156</v>
       </c>
@@ -2502,7 +2474,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>253</v>
       </c>
@@ -2534,7 +2506,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>955</v>
       </c>
@@ -2566,7 +2538,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>723</v>
       </c>
@@ -2598,7 +2570,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>281</v>
       </c>
@@ -2630,7 +2602,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>347</v>
       </c>
@@ -2662,7 +2634,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>661</v>
       </c>
@@ -2694,7 +2666,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>590</v>
       </c>
@@ -2726,7 +2698,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>654</v>
       </c>
@@ -2758,7 +2730,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="7" t="s">
         <v>54</v>
       </c>
@@ -2769,14 +2741,14 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B24)</f>
         <v>=OFFSET(D11;1;3;6;4)</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" cm="1">
         <f t="array" aca="1" ref="B24:E29" ca="1">OFFSET(D11,1,3,6,4)</f>
         <v>168</v>
@@ -2794,7 +2766,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25">
         <f ca="1"/>
         <v>816</v>
@@ -2812,7 +2784,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26">
         <f ca="1"/>
         <v>757</v>
@@ -2830,7 +2802,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27">
         <f ca="1"/>
         <v>150</v>
@@ -2848,7 +2820,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28">
         <f ca="1"/>
         <v>222</v>
@@ -2866,7 +2838,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29">
         <f ca="1"/>
         <v>803</v>
@@ -2884,18 +2856,18 @@
         <v>857</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B32)</f>
         <v>=INDEX(D11:K18;SEQUENCE(6;;2);SEQUENCE(;4;4))</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" cm="1">
         <f t="array" ref="B32:E37">INDEX(D11:K18,_xlfn.SEQUENCE(6,,2),_xlfn.SEQUENCE(,4,4))</f>
         <v>168</v>
@@ -2910,7 +2882,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>816</v>
       </c>
@@ -2924,7 +2896,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>757</v>
       </c>
@@ -2938,7 +2910,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>150</v>
       </c>
@@ -2952,7 +2924,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>222</v>
       </c>
@@ -2966,7 +2938,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>803</v>
       </c>
@@ -2980,7 +2952,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="6" t="s">
         <v>39</v>
       </c>
@@ -2991,18 +2963,18 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="7" t="s">
         <v>54</v>
       </c>
@@ -3013,8 +2985,8 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>675</v>
       </c>
@@ -3043,7 +3015,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>718</v>
       </c>
@@ -3072,7 +3044,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>930</v>
       </c>
@@ -3101,7 +3073,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>404</v>
       </c>
@@ -3130,7 +3102,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>967</v>
       </c>
@@ -3159,7 +3131,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>448</v>
       </c>
@@ -3188,7 +3160,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>928</v>
       </c>
@@ -3217,7 +3189,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>169</v>
       </c>
@@ -3246,7 +3218,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>916</v>
       </c>
@@ -3275,7 +3247,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56">
         <v>559</v>
       </c>
@@ -3304,13 +3276,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B59)</f>
         <v>=INDEX(C49:J56;{1;2;5;7};{4\5\6\7})</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" cm="1">
         <f t="array" ref="B59:E62">INDEX(C49:J56,{1;2;5;7},{4,5,6,7})</f>
         <v>496</v>
@@ -3325,7 +3297,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>268</v>
       </c>
@@ -3339,7 +3311,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>255</v>
       </c>
@@ -3353,7 +3325,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>315</v>
       </c>
@@ -3367,7 +3339,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="6" t="s">
         <v>40</v>
       </c>
@@ -3378,18 +3350,18 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="7" t="s">
         <v>54</v>
       </c>
@@ -3400,8 +3372,8 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>46</v>
       </c>
@@ -3415,7 +3387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>50</v>
       </c>
@@ -3430,7 +3402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>48</v>
       </c>
@@ -3438,7 +3410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>49</v>
       </c>
@@ -3446,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>51</v>
       </c>
@@ -3454,7 +3426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>55</v>
       </c>
@@ -3481,9 +3453,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1">
         <f>SUM(,)</f>
         <v>0</v>
@@ -3505,12 +3477,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>37653</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f>DOLLAR(1,0)</f>
         <v>£1</v>
